--- a/Guideviewer Achievements.xlsx
+++ b/Guideviewer Achievements.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alkr.skp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Fil01\e$\PraktikCenter\Home\HOT\ALKr.skp\Projects\C#\GuideViewer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1846,7 +1846,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1866,6 +1866,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1873,9 +1879,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyAlignment="1">
@@ -2166,8 +2169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C172" sqref="C172"/>
+    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="C190" sqref="C190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2197,56 +2200,56 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
-      <c r="C4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="C5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -2277,48 +2280,48 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="10">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
@@ -2349,26 +2352,26 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-      <c r="C17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="8"/>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
@@ -2525,384 +2528,384 @@
       </c>
     </row>
     <row r="29" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="11" t="s">
         <v>47</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="7"/>
-      <c r="C30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="8"/>
+      <c r="E30" s="10"/>
     </row>
     <row r="31" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="7"/>
-      <c r="C31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="8"/>
+      <c r="E31" s="10"/>
     </row>
     <row r="32" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="7"/>
-      <c r="C32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="8"/>
+      <c r="E32" s="10"/>
     </row>
     <row r="33" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="11" t="s">
         <v>50</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="7"/>
-      <c r="C34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="11"/>
       <c r="D34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="8"/>
+      <c r="E34" s="10"/>
     </row>
     <row r="35" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="7"/>
-      <c r="C35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="8"/>
+      <c r="E35" s="10"/>
     </row>
     <row r="36" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="7"/>
-      <c r="C36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="11"/>
       <c r="D36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="8"/>
+      <c r="E36" s="10"/>
     </row>
     <row r="37" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="7"/>
-      <c r="C38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="11"/>
       <c r="D38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="8"/>
+      <c r="E38" s="10"/>
     </row>
     <row r="39" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="7"/>
-      <c r="C39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="11"/>
       <c r="D39" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="8"/>
+      <c r="E39" s="10"/>
     </row>
     <row r="40" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="7"/>
-      <c r="C40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="8"/>
+      <c r="E40" s="10"/>
     </row>
     <row r="41" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="11" t="s">
         <v>54</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="7"/>
-      <c r="C42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="11"/>
       <c r="D42" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="8"/>
+      <c r="E42" s="10"/>
     </row>
     <row r="43" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="7"/>
-      <c r="C43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="11"/>
       <c r="D43" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E43" s="8"/>
+      <c r="E43" s="10"/>
     </row>
     <row r="44" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="7"/>
-      <c r="C44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="11"/>
       <c r="D44" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="8"/>
+      <c r="E44" s="10"/>
     </row>
     <row r="45" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="11" t="s">
         <v>56</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="7"/>
-      <c r="C46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="11"/>
       <c r="D46" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E46" s="8"/>
+      <c r="E46" s="10"/>
     </row>
     <row r="47" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="7"/>
-      <c r="C47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="11"/>
       <c r="D47" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E47" s="8"/>
+      <c r="E47" s="10"/>
     </row>
     <row r="48" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="7"/>
-      <c r="C48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="11"/>
       <c r="D48" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="8"/>
+      <c r="E48" s="10"/>
     </row>
     <row r="49" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="11" t="s">
         <v>58</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="7"/>
-      <c r="C50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="11"/>
       <c r="D50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E50" s="8"/>
+      <c r="E50" s="10"/>
     </row>
     <row r="51" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="7"/>
-      <c r="C51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="11"/>
       <c r="D51" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E51" s="8"/>
+      <c r="E51" s="10"/>
     </row>
     <row r="52" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="7"/>
-      <c r="C52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="11"/>
       <c r="D52" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="8"/>
+      <c r="E52" s="10"/>
     </row>
     <row r="53" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="11" t="s">
         <v>60</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="7"/>
-      <c r="C54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="11"/>
       <c r="D54" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E54" s="8"/>
+      <c r="E54" s="10"/>
     </row>
     <row r="55" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="7"/>
-      <c r="C55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="11"/>
       <c r="D55" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E55" s="8"/>
+      <c r="E55" s="10"/>
     </row>
     <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="7"/>
-      <c r="C56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="11"/>
       <c r="D56" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="8"/>
+      <c r="E56" s="10"/>
     </row>
     <row r="57" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="11" t="s">
         <v>62</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="8">
+      <c r="E57" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="7"/>
-      <c r="C58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="11"/>
       <c r="D58" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E58" s="8"/>
+      <c r="E58" s="10"/>
     </row>
     <row r="59" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="7"/>
-      <c r="C59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="11"/>
       <c r="D59" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E59" s="8"/>
+      <c r="E59" s="10"/>
     </row>
     <row r="60" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="7"/>
-      <c r="C60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="11"/>
       <c r="D60" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E60" s="8"/>
+      <c r="E60" s="10"/>
     </row>
     <row r="61" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="11" t="s">
         <v>64</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E61" s="8">
+      <c r="E61" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="7"/>
-      <c r="C62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="11"/>
       <c r="D62" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E62" s="8"/>
+      <c r="E62" s="10"/>
     </row>
     <row r="63" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="7"/>
-      <c r="C63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="11"/>
       <c r="D63" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E63" s="8"/>
+      <c r="E63" s="10"/>
     </row>
     <row r="64" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="7"/>
-      <c r="C64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="11"/>
       <c r="D64" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E64" s="8"/>
+      <c r="E64" s="10"/>
     </row>
     <row r="65" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="11" t="s">
         <v>66</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E65" s="8">
+      <c r="E65" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="7"/>
-      <c r="C66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="11"/>
       <c r="D66" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E66" s="8"/>
+      <c r="E66" s="10"/>
     </row>
     <row r="67" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="7"/>
-      <c r="C67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="11"/>
       <c r="D67" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E67" s="8"/>
+      <c r="E67" s="10"/>
     </row>
     <row r="68" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="7"/>
-      <c r="C68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="11"/>
       <c r="D68" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E68" s="8"/>
+      <c r="E68" s="10"/>
     </row>
     <row r="69" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
@@ -2933,34 +2936,34 @@
       </c>
     </row>
     <row r="71" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="11" t="s">
         <v>72</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E71" s="8">
+      <c r="E71" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="72" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="7"/>
-      <c r="C72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="11"/>
       <c r="D72" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E72" s="8"/>
+      <c r="E72" s="10"/>
     </row>
     <row r="73" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="7"/>
-      <c r="C73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="11"/>
       <c r="D73" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E73" s="8"/>
+      <c r="E73" s="10"/>
     </row>
     <row r="74" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
@@ -3019,78 +3022,78 @@
       </c>
     </row>
     <row r="78" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="11" t="s">
         <v>82</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E78" s="8">
+      <c r="E78" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="79" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="7"/>
-      <c r="C79" s="9"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="11"/>
       <c r="D79" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E79" s="8"/>
+      <c r="E79" s="10"/>
     </row>
     <row r="80" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="11" t="s">
         <v>84</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E80" s="8">
+      <c r="E80" s="10">
         <v>25</v>
       </c>
     </row>
     <row r="81" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="7"/>
-      <c r="C81" s="9"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="11"/>
       <c r="D81" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E81" s="8"/>
+      <c r="E81" s="10"/>
     </row>
     <row r="82" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C82" s="11" t="s">
         <v>86</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E82" s="8">
+      <c r="E82" s="10">
         <v>25</v>
       </c>
     </row>
     <row r="83" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="7"/>
-      <c r="C83" s="9"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="11"/>
       <c r="D83" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E83" s="8"/>
+      <c r="E83" s="10"/>
     </row>
     <row r="84" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="7"/>
-      <c r="C84" s="9"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="11"/>
       <c r="D84" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E84" s="8"/>
+      <c r="E84" s="10"/>
     </row>
     <row r="85" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
@@ -3177,26 +3180,26 @@
       </c>
     </row>
     <row r="91" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="C91" s="11" t="s">
         <v>100</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="8">
+      <c r="E91" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="92" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="7"/>
-      <c r="C92" s="9"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="11"/>
       <c r="D92" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E92" s="8"/>
+      <c r="E92" s="10"/>
     </row>
     <row r="93" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="2" t="s">
@@ -3451,48 +3454,48 @@
       </c>
     </row>
     <row r="111" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="7" t="s">
+      <c r="B111" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="C111" s="11" t="s">
         <v>138</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E111" s="8">
+      <c r="E111" s="10">
         <v>40</v>
       </c>
     </row>
     <row r="112" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="7"/>
-      <c r="C112" s="9"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="11"/>
       <c r="D112" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E112" s="8"/>
+      <c r="E112" s="10"/>
     </row>
     <row r="113" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="7" t="s">
+      <c r="B113" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C113" s="9" t="s">
+      <c r="C113" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E113" s="8">
+      <c r="E113" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="114" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="7"/>
-      <c r="C114" s="9"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="11"/>
       <c r="D114" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E114" s="8"/>
+      <c r="E114" s="10"/>
     </row>
     <row r="115" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="2" t="s">
@@ -3523,26 +3526,26 @@
       </c>
     </row>
     <row r="117" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="7" t="s">
+      <c r="B117" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C117" s="9" t="s">
+      <c r="C117" s="11" t="s">
         <v>147</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E117" s="8">
+      <c r="E117" s="10">
         <v>40</v>
       </c>
     </row>
     <row r="118" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="7"/>
-      <c r="C118" s="9"/>
+      <c r="B118" s="9"/>
+      <c r="C118" s="11"/>
       <c r="D118" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E118" s="8"/>
+      <c r="E118" s="10"/>
     </row>
     <row r="119" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="2" t="s">
@@ -3573,26 +3576,26 @@
       </c>
     </row>
     <row r="121" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="7" t="s">
+      <c r="B121" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C121" s="9" t="s">
+      <c r="C121" s="11" t="s">
         <v>153</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E121" s="8">
+      <c r="E121" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="122" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="7"/>
-      <c r="C122" s="9"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="11"/>
       <c r="D122" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E122" s="8"/>
+      <c r="E122" s="10"/>
     </row>
     <row r="123" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="2" t="s">
@@ -3665,34 +3668,34 @@
       </c>
     </row>
     <row r="128" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="7" t="s">
+      <c r="B128" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C128" s="9" t="s">
+      <c r="C128" s="11" t="s">
         <v>165</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E128" s="8">
+      <c r="E128" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="129" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="7"/>
-      <c r="C129" s="9"/>
+      <c r="B129" s="9"/>
+      <c r="C129" s="11"/>
       <c r="D129" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E129" s="8"/>
+      <c r="E129" s="10"/>
     </row>
     <row r="130" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="7"/>
-      <c r="C130" s="9"/>
+      <c r="B130" s="9"/>
+      <c r="C130" s="11"/>
       <c r="D130" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E130" s="8"/>
+      <c r="E130" s="10"/>
     </row>
     <row r="131" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="2" t="s">
@@ -3737,48 +3740,48 @@
       </c>
     </row>
     <row r="134" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="7" t="s">
+      <c r="B134" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C134" s="9" t="s">
+      <c r="C134" s="11" t="s">
         <v>173</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E134" s="8">
+      <c r="E134" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="135" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="7"/>
-      <c r="C135" s="9"/>
+      <c r="B135" s="9"/>
+      <c r="C135" s="11"/>
       <c r="D135" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E135" s="8"/>
+      <c r="E135" s="10"/>
     </row>
     <row r="136" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="7" t="s">
+      <c r="B136" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C136" s="9" t="s">
+      <c r="C136" s="11" t="s">
         <v>175</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E136" s="8">
+      <c r="E136" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="137" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="7"/>
-      <c r="C137" s="9"/>
+      <c r="B137" s="9"/>
+      <c r="C137" s="11"/>
       <c r="D137" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E137" s="8"/>
+      <c r="E137" s="10"/>
     </row>
     <row r="138" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="2" t="s">
@@ -3893,26 +3896,26 @@
       </c>
     </row>
     <row r="146" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="7" t="s">
+      <c r="B146" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="C146" s="9" t="s">
+      <c r="C146" s="11" t="s">
         <v>193</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E146" s="8">
+      <c r="E146" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="147" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="7"/>
-      <c r="C147" s="9"/>
+      <c r="B147" s="9"/>
+      <c r="C147" s="11"/>
       <c r="D147" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E147" s="8"/>
+      <c r="E147" s="10"/>
     </row>
     <row r="148" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="2" t="s">
@@ -3943,32 +3946,32 @@
       </c>
     </row>
     <row r="150" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="7" t="s">
+      <c r="B150" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C150" s="11" t="s">
+      <c r="C150" s="12" t="s">
         <v>200</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E150" s="8">
+      <c r="E150" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="7"/>
-      <c r="C151" s="11"/>
+      <c r="B151" s="9"/>
+      <c r="C151" s="12"/>
       <c r="D151" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E151" s="8"/>
+      <c r="E151" s="10"/>
     </row>
     <row r="152" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C152" s="10" t="s">
+      <c r="C152" s="8" t="s">
         <v>202</v>
       </c>
       <c r="D152" s="1" t="s">
@@ -3979,26 +3982,26 @@
       </c>
     </row>
     <row r="153" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="7" t="s">
+      <c r="B153" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="C153" s="9" t="s">
+      <c r="C153" s="11" t="s">
         <v>204</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E153" s="8">
+      <c r="E153" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="154" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="7"/>
-      <c r="C154" s="9"/>
+      <c r="B154" s="9"/>
+      <c r="C154" s="11"/>
       <c r="D154" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E154" s="8"/>
+      <c r="E154" s="10"/>
     </row>
     <row r="155" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="2" t="s">
@@ -4071,26 +4074,26 @@
       </c>
     </row>
     <row r="160" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="7" t="s">
+      <c r="B160" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C160" s="9" t="s">
+      <c r="C160" s="11" t="s">
         <v>216</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E160" s="8">
+      <c r="E160" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="161" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="7"/>
-      <c r="C161" s="9"/>
+      <c r="B161" s="9"/>
+      <c r="C161" s="11"/>
       <c r="D161" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E161" s="8"/>
+      <c r="E161" s="10"/>
     </row>
     <row r="162" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="3" t="s">
@@ -4250,7 +4253,7 @@
       <c r="B173" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C173" s="7" t="s">
         <v>240</v>
       </c>
       <c r="D173" s="1" t="s">
@@ -4264,7 +4267,7 @@
       <c r="B174" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C174" s="5" t="s">
+      <c r="C174" s="7" t="s">
         <v>242</v>
       </c>
       <c r="D174" s="1" t="s">
@@ -4278,7 +4281,7 @@
       <c r="B175" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="C175" s="7" t="s">
         <v>244</v>
       </c>
       <c r="D175" s="1" t="s">
@@ -4292,7 +4295,7 @@
       <c r="B176" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C176" s="7" t="s">
         <v>246</v>
       </c>
       <c r="D176" s="1" t="s">
@@ -4306,7 +4309,7 @@
       <c r="B177" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C177" s="7" t="s">
         <v>248</v>
       </c>
       <c r="D177" s="1" t="s">
@@ -4320,7 +4323,7 @@
       <c r="B178" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="C178" s="7" t="s">
         <v>250</v>
       </c>
       <c r="D178" s="1" t="s">
@@ -4334,7 +4337,7 @@
       <c r="B179" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C179" s="7" t="s">
         <v>252</v>
       </c>
       <c r="D179" s="1" t="s">
@@ -4348,7 +4351,7 @@
       <c r="B180" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="C180" s="7" t="s">
         <v>254</v>
       </c>
       <c r="D180" s="1" t="s">
@@ -4362,7 +4365,7 @@
       <c r="B181" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C181" s="7" t="s">
         <v>256</v>
       </c>
       <c r="D181" s="1" t="s">
@@ -4376,7 +4379,7 @@
       <c r="B182" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="C182" s="7" t="s">
         <v>258</v>
       </c>
       <c r="D182" s="1" t="s">
@@ -4390,7 +4393,7 @@
       <c r="B183" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="C183" s="7" t="s">
         <v>260</v>
       </c>
       <c r="D183" s="1" t="s">
@@ -4404,7 +4407,7 @@
       <c r="B184" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="C184" s="7" t="s">
         <v>262</v>
       </c>
       <c r="D184" s="1" t="s">
@@ -4418,7 +4421,7 @@
       <c r="B185" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="C185" s="7" t="s">
         <v>264</v>
       </c>
       <c r="D185" s="1" t="s">
@@ -4429,48 +4432,48 @@
       </c>
     </row>
     <row r="186" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="7" t="s">
+      <c r="B186" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="C186" s="8" t="s">
+      <c r="C186" s="11" t="s">
         <v>266</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E186" s="8">
+      <c r="E186" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="187" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="7"/>
-      <c r="C187" s="8"/>
+      <c r="B187" s="9"/>
+      <c r="C187" s="11"/>
       <c r="D187" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E187" s="8"/>
+      <c r="E187" s="10"/>
     </row>
     <row r="188" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="7" t="s">
+      <c r="B188" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="C188" s="8" t="s">
+      <c r="C188" s="11" t="s">
         <v>268</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E188" s="8">
+      <c r="E188" s="10">
         <v>25</v>
       </c>
     </row>
     <row r="189" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="7"/>
-      <c r="C189" s="8"/>
+      <c r="B189" s="9"/>
+      <c r="C189" s="11"/>
       <c r="D189" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E189" s="8"/>
+      <c r="E189" s="10"/>
     </row>
     <row r="190" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="2" t="s">
@@ -4501,26 +4504,26 @@
       </c>
     </row>
     <row r="192" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="7" t="s">
+      <c r="B192" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="C192" s="8" t="s">
+      <c r="C192" s="10" t="s">
         <v>274</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E192" s="8">
+      <c r="E192" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="193" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="7"/>
-      <c r="C193" s="8"/>
+      <c r="B193" s="9"/>
+      <c r="C193" s="10"/>
       <c r="D193" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E193" s="8"/>
+      <c r="E193" s="10"/>
     </row>
     <row r="194" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="2" t="s">
@@ -4537,34 +4540,34 @@
       </c>
     </row>
     <row r="195" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="7" t="s">
+      <c r="B195" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="C195" s="8" t="s">
+      <c r="C195" s="10" t="s">
         <v>278</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E195" s="8">
+      <c r="E195" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="196" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="7"/>
-      <c r="C196" s="8"/>
+      <c r="B196" s="9"/>
+      <c r="C196" s="10"/>
       <c r="D196" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E196" s="8"/>
+      <c r="E196" s="10"/>
     </row>
     <row r="197" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="7"/>
-      <c r="C197" s="8"/>
+      <c r="B197" s="9"/>
+      <c r="C197" s="10"/>
       <c r="D197" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E197" s="8"/>
+      <c r="E197" s="10"/>
     </row>
     <row r="198" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="2" t="s">
@@ -4637,26 +4640,26 @@
       </c>
     </row>
     <row r="203" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="7" t="s">
+      <c r="B203" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="C203" s="8" t="s">
+      <c r="C203" s="10" t="s">
         <v>290</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E203" s="8">
+      <c r="E203" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="204" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="7"/>
-      <c r="C204" s="8"/>
+      <c r="B204" s="9"/>
+      <c r="C204" s="10"/>
       <c r="D204" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E204" s="8"/>
+      <c r="E204" s="10"/>
     </row>
     <row r="205" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="2" t="s">
@@ -4673,56 +4676,56 @@
       </c>
     </row>
     <row r="206" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="7" t="s">
+      <c r="B206" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="C206" s="8" t="s">
+      <c r="C206" s="10" t="s">
         <v>294</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E206" s="8">
+      <c r="E206" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="207" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="7"/>
-      <c r="C207" s="8"/>
+      <c r="B207" s="9"/>
+      <c r="C207" s="10"/>
       <c r="D207" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E207" s="8"/>
+      <c r="E207" s="10"/>
     </row>
     <row r="208" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="7" t="s">
+      <c r="B208" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="C208" s="8" t="s">
+      <c r="C208" s="10" t="s">
         <v>296</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E208" s="8">
+      <c r="E208" s="10">
         <v>25</v>
       </c>
     </row>
     <row r="209" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="7"/>
-      <c r="C209" s="8"/>
+      <c r="B209" s="9"/>
+      <c r="C209" s="10"/>
       <c r="D209" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E209" s="8"/>
+      <c r="E209" s="10"/>
     </row>
     <row r="210" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="7"/>
-      <c r="C210" s="8"/>
+      <c r="B210" s="9"/>
+      <c r="C210" s="10"/>
       <c r="D210" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E210" s="8"/>
+      <c r="E210" s="10"/>
     </row>
     <row r="211" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="2" t="s">
@@ -4795,26 +4798,26 @@
       </c>
     </row>
     <row r="216" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B216" s="7" t="s">
+      <c r="B216" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="C216" s="9" t="s">
+      <c r="C216" s="11" t="s">
         <v>308</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E216" s="8">
+      <c r="E216" s="10">
         <v>40</v>
       </c>
     </row>
     <row r="217" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="7"/>
-      <c r="C217" s="9"/>
+      <c r="B217" s="9"/>
+      <c r="C217" s="11"/>
       <c r="D217" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E217" s="8"/>
+      <c r="E217" s="10"/>
     </row>
     <row r="218" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="2" t="s">
@@ -4845,26 +4848,26 @@
       </c>
     </row>
     <row r="220" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="7" t="s">
+      <c r="B220" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="C220" s="8" t="s">
+      <c r="C220" s="10" t="s">
         <v>314</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E220" s="8">
+      <c r="E220" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="221" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="7"/>
-      <c r="C221" s="8"/>
+      <c r="B221" s="9"/>
+      <c r="C221" s="10"/>
       <c r="D221" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E221" s="8"/>
+      <c r="E221" s="10"/>
     </row>
     <row r="222" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="2" t="s">
@@ -4909,26 +4912,26 @@
       </c>
     </row>
     <row r="225" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="7" t="s">
+      <c r="B225" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="C225" s="8" t="s">
+      <c r="C225" s="10" t="s">
         <v>322</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E225" s="8">
+      <c r="E225" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="226" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="7"/>
-      <c r="C226" s="8"/>
+      <c r="B226" s="9"/>
+      <c r="C226" s="10"/>
       <c r="D226" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E226" s="8"/>
+      <c r="E226" s="10"/>
     </row>
     <row r="227" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="2" t="s">
@@ -5015,48 +5018,48 @@
       </c>
     </row>
     <row r="233" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="7" t="s">
+      <c r="B233" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="C233" s="8" t="s">
+      <c r="C233" s="10" t="s">
         <v>336</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E233" s="8">
+      <c r="E233" s="10">
         <v>25</v>
       </c>
     </row>
     <row r="234" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="7"/>
-      <c r="C234" s="8"/>
+      <c r="B234" s="9"/>
+      <c r="C234" s="10"/>
       <c r="D234" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E234" s="8"/>
+      <c r="E234" s="10"/>
     </row>
     <row r="235" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="7" t="s">
+      <c r="B235" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="C235" s="8" t="s">
+      <c r="C235" s="10" t="s">
         <v>338</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E235" s="8">
+      <c r="E235" s="10">
         <v>75</v>
       </c>
     </row>
     <row r="236" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="7"/>
-      <c r="C236" s="8"/>
+      <c r="B236" s="9"/>
+      <c r="C236" s="10"/>
       <c r="D236" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E236" s="8"/>
+      <c r="E236" s="10"/>
     </row>
     <row r="237" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="2" t="s">
@@ -5143,26 +5146,26 @@
       </c>
     </row>
     <row r="243" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="7" t="s">
+      <c r="B243" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="C243" s="8" t="s">
+      <c r="C243" s="10" t="s">
         <v>352</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E243" s="8">
+      <c r="E243" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="244" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="7"/>
-      <c r="C244" s="8"/>
+      <c r="B244" s="9"/>
+      <c r="C244" s="10"/>
       <c r="D244" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E244" s="8"/>
+      <c r="E244" s="10"/>
     </row>
     <row r="245" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="2" t="s">
@@ -5179,26 +5182,26 @@
       </c>
     </row>
     <row r="246" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="7" t="s">
+      <c r="B246" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="C246" s="8" t="s">
+      <c r="C246" s="10" t="s">
         <v>356</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E246" s="8">
+      <c r="E246" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="247" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B247" s="7"/>
-      <c r="C247" s="8"/>
+      <c r="B247" s="9"/>
+      <c r="C247" s="10"/>
       <c r="D247" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E247" s="8"/>
+      <c r="E247" s="10"/>
     </row>
     <row r="248" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="2" t="s">
@@ -5285,34 +5288,34 @@
       </c>
     </row>
     <row r="254" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B254" s="7" t="s">
+      <c r="B254" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="C254" s="8" t="s">
+      <c r="C254" s="10" t="s">
         <v>370</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E254" s="8">
+      <c r="E254" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="255" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B255" s="7"/>
-      <c r="C255" s="8"/>
+      <c r="B255" s="9"/>
+      <c r="C255" s="10"/>
       <c r="D255" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E255" s="8"/>
+      <c r="E255" s="10"/>
     </row>
     <row r="256" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B256" s="7"/>
-      <c r="C256" s="8"/>
+      <c r="B256" s="9"/>
+      <c r="C256" s="10"/>
       <c r="D256" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E256" s="8"/>
+      <c r="E256" s="10"/>
     </row>
     <row r="257" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="2" t="s">
@@ -5357,34 +5360,34 @@
       </c>
     </row>
     <row r="260" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="7" t="s">
+      <c r="B260" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="C260" s="8" t="s">
+      <c r="C260" s="10" t="s">
         <v>378</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E260" s="8">
+      <c r="E260" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="261" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B261" s="7"/>
-      <c r="C261" s="8"/>
+      <c r="B261" s="9"/>
+      <c r="C261" s="10"/>
       <c r="D261" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E261" s="8"/>
+      <c r="E261" s="10"/>
     </row>
     <row r="262" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B262" s="7"/>
-      <c r="C262" s="8"/>
+      <c r="B262" s="9"/>
+      <c r="C262" s="10"/>
       <c r="D262" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E262" s="8"/>
+      <c r="E262" s="10"/>
     </row>
     <row r="263" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="2" t="s">
@@ -5457,34 +5460,34 @@
       </c>
     </row>
     <row r="268" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B268" s="7" t="s">
+      <c r="B268" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="C268" s="8" t="s">
+      <c r="C268" s="10" t="s">
         <v>390</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E268" s="8">
+      <c r="E268" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="269" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B269" s="7"/>
-      <c r="C269" s="8"/>
+      <c r="B269" s="9"/>
+      <c r="C269" s="10"/>
       <c r="D269" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E269" s="8"/>
+      <c r="E269" s="10"/>
     </row>
     <row r="270" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B270" s="7"/>
-      <c r="C270" s="8"/>
+      <c r="B270" s="9"/>
+      <c r="C270" s="10"/>
       <c r="D270" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E270" s="8"/>
+      <c r="E270" s="10"/>
     </row>
     <row r="271" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="2" t="s">
@@ -5529,26 +5532,26 @@
       </c>
     </row>
     <row r="274" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="7" t="s">
+      <c r="B274" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="C274" s="8" t="s">
+      <c r="C274" s="10" t="s">
         <v>398</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E274" s="8">
+      <c r="E274" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="275" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B275" s="7"/>
-      <c r="C275" s="8"/>
+      <c r="B275" s="9"/>
+      <c r="C275" s="10"/>
       <c r="D275" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E275" s="8"/>
+      <c r="E275" s="10"/>
     </row>
     <row r="276" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="2" t="s">
@@ -5635,26 +5638,26 @@
       </c>
     </row>
     <row r="282" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B282" s="7" t="s">
+      <c r="B282" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="C282" s="8" t="s">
+      <c r="C282" s="10" t="s">
         <v>412</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E282" s="8">
+      <c r="E282" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="283" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B283" s="7"/>
-      <c r="C283" s="8"/>
+      <c r="B283" s="9"/>
+      <c r="C283" s="10"/>
       <c r="D283" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E283" s="8"/>
+      <c r="E283" s="10"/>
     </row>
     <row r="284" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" s="2" t="s">
@@ -5671,48 +5674,48 @@
       </c>
     </row>
     <row r="285" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B285" s="7" t="s">
+      <c r="B285" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="C285" s="8" t="s">
+      <c r="C285" s="10" t="s">
         <v>416</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E285" s="8">
+      <c r="E285" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="286" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B286" s="7"/>
-      <c r="C286" s="8"/>
+      <c r="B286" s="9"/>
+      <c r="C286" s="10"/>
       <c r="D286" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E286" s="8"/>
+      <c r="E286" s="10"/>
     </row>
     <row r="287" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B287" s="7" t="s">
+      <c r="B287" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="C287" s="8" t="s">
+      <c r="C287" s="10" t="s">
         <v>418</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E287" s="8">
+      <c r="E287" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="288" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B288" s="7"/>
-      <c r="C288" s="8"/>
+      <c r="B288" s="9"/>
+      <c r="C288" s="10"/>
       <c r="D288" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E288" s="8"/>
+      <c r="E288" s="10"/>
     </row>
     <row r="289" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="2" t="s">
@@ -5743,26 +5746,26 @@
       </c>
     </row>
     <row r="291" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B291" s="7" t="s">
+      <c r="B291" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="C291" s="8" t="s">
+      <c r="C291" s="10" t="s">
         <v>424</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E291" s="8">
+      <c r="E291" s="10">
         <v>30</v>
       </c>
     </row>
     <row r="292" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B292" s="7"/>
-      <c r="C292" s="8"/>
+      <c r="B292" s="9"/>
+      <c r="C292" s="10"/>
       <c r="D292" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E292" s="8"/>
+      <c r="E292" s="10"/>
     </row>
     <row r="293" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="2" t="s">
@@ -5891,56 +5894,56 @@
       </c>
     </row>
     <row r="302" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B302" s="7" t="s">
+      <c r="B302" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="C302" s="8" t="s">
+      <c r="C302" s="10" t="s">
         <v>444</v>
       </c>
       <c r="D302" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E302" s="8">
+      <c r="E302" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="303" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B303" s="7"/>
-      <c r="C303" s="8"/>
+      <c r="B303" s="9"/>
+      <c r="C303" s="10"/>
       <c r="D303" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E303" s="8"/>
+      <c r="E303" s="10"/>
     </row>
     <row r="304" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B304" s="7"/>
-      <c r="C304" s="8"/>
+      <c r="B304" s="9"/>
+      <c r="C304" s="10"/>
       <c r="D304" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E304" s="8"/>
+      <c r="E304" s="10"/>
     </row>
     <row r="305" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B305" s="7" t="s">
+      <c r="B305" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="C305" s="8" t="s">
+      <c r="C305" s="10" t="s">
         <v>446</v>
       </c>
       <c r="D305" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E305" s="8">
+      <c r="E305" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="306" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B306" s="7"/>
-      <c r="C306" s="8"/>
+      <c r="B306" s="9"/>
+      <c r="C306" s="10"/>
       <c r="D306" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E306" s="8"/>
+      <c r="E306" s="10"/>
     </row>
     <row r="307" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" s="2" t="s">
@@ -5971,26 +5974,26 @@
       </c>
     </row>
     <row r="309" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B309" s="7" t="s">
+      <c r="B309" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="C309" s="9" t="s">
+      <c r="C309" s="11" t="s">
         <v>452</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E309" s="8">
+      <c r="E309" s="10">
         <v>40</v>
       </c>
     </row>
     <row r="310" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B310" s="7"/>
-      <c r="C310" s="9"/>
+      <c r="B310" s="9"/>
+      <c r="C310" s="11"/>
       <c r="D310" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E310" s="8"/>
+      <c r="E310" s="10"/>
     </row>
     <row r="311" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" s="2" t="s">
@@ -6007,26 +6010,26 @@
       </c>
     </row>
     <row r="312" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B312" s="7" t="s">
+      <c r="B312" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="C312" s="8" t="s">
+      <c r="C312" s="10" t="s">
         <v>456</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E312" s="8">
+      <c r="E312" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="313" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B313" s="7"/>
-      <c r="C313" s="8"/>
+      <c r="B313" s="9"/>
+      <c r="C313" s="10"/>
       <c r="D313" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E313" s="8"/>
+      <c r="E313" s="10"/>
     </row>
     <row r="314" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B314" s="2" t="s">
@@ -6057,78 +6060,78 @@
       </c>
     </row>
     <row r="316" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B316" s="7" t="s">
+      <c r="B316" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="C316" s="8" t="s">
+      <c r="C316" s="10" t="s">
         <v>462</v>
       </c>
       <c r="D316" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E316" s="8">
+      <c r="E316" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="317" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B317" s="7"/>
-      <c r="C317" s="8"/>
+      <c r="B317" s="9"/>
+      <c r="C317" s="10"/>
       <c r="D317" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E317" s="8"/>
+      <c r="E317" s="10"/>
     </row>
     <row r="318" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B318" s="7"/>
-      <c r="C318" s="8"/>
+      <c r="B318" s="9"/>
+      <c r="C318" s="10"/>
       <c r="D318" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E318" s="8"/>
+      <c r="E318" s="10"/>
     </row>
     <row r="319" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B319" s="7" t="s">
+      <c r="B319" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="C319" s="8" t="s">
+      <c r="C319" s="10" t="s">
         <v>464</v>
       </c>
       <c r="D319" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E319" s="8">
+      <c r="E319" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="320" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B320" s="7"/>
-      <c r="C320" s="8"/>
+      <c r="B320" s="9"/>
+      <c r="C320" s="10"/>
       <c r="D320" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E320" s="8"/>
+      <c r="E320" s="10"/>
     </row>
     <row r="321" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B321" s="7" t="s">
+      <c r="B321" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="C321" s="8" t="s">
+      <c r="C321" s="10" t="s">
         <v>466</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E321" s="8">
+      <c r="E321" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="322" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B322" s="7"/>
-      <c r="C322" s="8"/>
+      <c r="B322" s="9"/>
+      <c r="C322" s="10"/>
       <c r="D322" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E322" s="8"/>
+      <c r="E322" s="10"/>
     </row>
     <row r="323" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B323" s="3" t="s">
@@ -6145,56 +6148,56 @@
       </c>
     </row>
     <row r="324" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B324" s="7" t="s">
+      <c r="B324" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="C324" s="8" t="s">
+      <c r="C324" s="10" t="s">
         <v>470</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E324" s="8">
+      <c r="E324" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="325" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B325" s="7"/>
-      <c r="C325" s="8"/>
+      <c r="B325" s="9"/>
+      <c r="C325" s="10"/>
       <c r="D325" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E325" s="8"/>
+      <c r="E325" s="10"/>
     </row>
     <row r="326" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B326" s="7"/>
-      <c r="C326" s="8"/>
+      <c r="B326" s="9"/>
+      <c r="C326" s="10"/>
       <c r="D326" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E326" s="8"/>
+      <c r="E326" s="10"/>
     </row>
     <row r="327" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B327" s="7" t="s">
+      <c r="B327" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="C327" s="8" t="s">
+      <c r="C327" s="10" t="s">
         <v>472</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E327" s="8">
+      <c r="E327" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="328" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B328" s="7"/>
-      <c r="C328" s="8"/>
+      <c r="B328" s="9"/>
+      <c r="C328" s="10"/>
       <c r="D328" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E328" s="8"/>
+      <c r="E328" s="10"/>
     </row>
     <row r="329" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B329" s="2" t="s">
@@ -6253,64 +6256,64 @@
       </c>
     </row>
     <row r="333" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B333" s="7" t="s">
+      <c r="B333" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="C333" s="8" t="s">
+      <c r="C333" s="10" t="s">
         <v>482</v>
       </c>
       <c r="D333" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E333" s="8">
+      <c r="E333" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="334" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B334" s="7"/>
-      <c r="C334" s="8"/>
+      <c r="B334" s="9"/>
+      <c r="C334" s="10"/>
       <c r="D334" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E334" s="8"/>
+      <c r="E334" s="10"/>
     </row>
     <row r="335" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B335" s="7"/>
-      <c r="C335" s="8"/>
+      <c r="B335" s="9"/>
+      <c r="C335" s="10"/>
       <c r="D335" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E335" s="8"/>
+      <c r="E335" s="10"/>
     </row>
     <row r="336" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B336" s="7" t="s">
+      <c r="B336" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="C336" s="8" t="s">
+      <c r="C336" s="10" t="s">
         <v>484</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E336" s="8">
+      <c r="E336" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="337" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B337" s="7"/>
-      <c r="C337" s="8"/>
+      <c r="B337" s="9"/>
+      <c r="C337" s="10"/>
       <c r="D337" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E337" s="8"/>
+      <c r="E337" s="10"/>
     </row>
     <row r="338" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B338" s="7"/>
-      <c r="C338" s="8"/>
+      <c r="B338" s="9"/>
+      <c r="C338" s="10"/>
       <c r="D338" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E338" s="8"/>
+      <c r="E338" s="10"/>
     </row>
     <row r="339" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="2" t="s">
@@ -6369,26 +6372,26 @@
       </c>
     </row>
     <row r="343" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B343" s="7" t="s">
+      <c r="B343" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="C343" s="8" t="s">
+      <c r="C343" s="10" t="s">
         <v>494</v>
       </c>
       <c r="D343" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E343" s="8">
+      <c r="E343" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="344" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B344" s="7"/>
-      <c r="C344" s="8"/>
+      <c r="B344" s="9"/>
+      <c r="C344" s="10"/>
       <c r="D344" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E344" s="8"/>
+      <c r="E344" s="10"/>
     </row>
     <row r="345" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B345" s="2" t="s">
@@ -6419,56 +6422,56 @@
       </c>
     </row>
     <row r="347" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B347" s="7" t="s">
+      <c r="B347" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="C347" s="8" t="s">
+      <c r="C347" s="10" t="s">
         <v>500</v>
       </c>
       <c r="D347" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E347" s="8">
+      <c r="E347" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="348" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B348" s="7"/>
-      <c r="C348" s="8"/>
+      <c r="B348" s="9"/>
+      <c r="C348" s="10"/>
       <c r="D348" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E348" s="8"/>
+      <c r="E348" s="10"/>
     </row>
     <row r="349" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B349" s="7"/>
-      <c r="C349" s="8"/>
+      <c r="B349" s="9"/>
+      <c r="C349" s="10"/>
       <c r="D349" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E349" s="8"/>
+      <c r="E349" s="10"/>
     </row>
     <row r="350" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B350" s="7" t="s">
+      <c r="B350" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="C350" s="8" t="s">
+      <c r="C350" s="10" t="s">
         <v>502</v>
       </c>
       <c r="D350" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="E350" s="8">
+      <c r="E350" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="351" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B351" s="7"/>
-      <c r="C351" s="8"/>
+      <c r="B351" s="9"/>
+      <c r="C351" s="10"/>
       <c r="D351" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E351" s="8"/>
+      <c r="E351" s="10"/>
     </row>
     <row r="352" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B352" s="2" t="s">
@@ -6485,26 +6488,26 @@
       </c>
     </row>
     <row r="353" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B353" s="7" t="s">
+      <c r="B353" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="C353" s="8" t="s">
+      <c r="C353" s="10" t="s">
         <v>507</v>
       </c>
       <c r="D353" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E353" s="8">
+      <c r="E353" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="354" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B354" s="7"/>
-      <c r="C354" s="8"/>
+      <c r="B354" s="9"/>
+      <c r="C354" s="10"/>
       <c r="D354" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E354" s="8"/>
+      <c r="E354" s="10"/>
     </row>
     <row r="355" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B355" s="2" t="s">
@@ -6521,26 +6524,26 @@
       </c>
     </row>
     <row r="356" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B356" s="7" t="s">
+      <c r="B356" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="C356" s="8" t="s">
+      <c r="C356" s="10" t="s">
         <v>511</v>
       </c>
       <c r="D356" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E356" s="8">
+      <c r="E356" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="357" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B357" s="7"/>
-      <c r="C357" s="8"/>
+      <c r="B357" s="9"/>
+      <c r="C357" s="10"/>
       <c r="D357" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E357" s="8"/>
+      <c r="E357" s="10"/>
     </row>
     <row r="358" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B358" s="2" t="s">
@@ -6571,48 +6574,48 @@
       </c>
     </row>
     <row r="360" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B360" s="7" t="s">
+      <c r="B360" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="C360" s="8" t="s">
+      <c r="C360" s="10" t="s">
         <v>517</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E360" s="8">
+      <c r="E360" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="361" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B361" s="7"/>
-      <c r="C361" s="8"/>
+      <c r="B361" s="9"/>
+      <c r="C361" s="10"/>
       <c r="D361" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E361" s="8"/>
+      <c r="E361" s="10"/>
     </row>
     <row r="362" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B362" s="7" t="s">
+      <c r="B362" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="C362" s="9" t="s">
+      <c r="C362" s="11" t="s">
         <v>519</v>
       </c>
       <c r="D362" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E362" s="8">
+      <c r="E362" s="10">
         <v>40</v>
       </c>
     </row>
     <row r="363" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B363" s="7"/>
-      <c r="C363" s="9"/>
+      <c r="B363" s="9"/>
+      <c r="C363" s="11"/>
       <c r="D363" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E363" s="8"/>
+      <c r="E363" s="10"/>
     </row>
     <row r="364" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B364" s="2" t="s">
@@ -6671,26 +6674,26 @@
       </c>
     </row>
     <row r="368" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B368" s="7" t="s">
+      <c r="B368" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="C368" s="8" t="s">
+      <c r="C368" s="10" t="s">
         <v>529</v>
       </c>
       <c r="D368" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E368" s="8">
+      <c r="E368" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="369" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B369" s="7"/>
-      <c r="C369" s="8"/>
+      <c r="B369" s="9"/>
+      <c r="C369" s="10"/>
       <c r="D369" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E369" s="8"/>
+      <c r="E369" s="10"/>
     </row>
     <row r="370" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B370" s="2" t="s">
@@ -6707,26 +6710,26 @@
       </c>
     </row>
     <row r="371" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B371" s="7" t="s">
+      <c r="B371" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="C371" s="8" t="s">
+      <c r="C371" s="10" t="s">
         <v>533</v>
       </c>
       <c r="D371" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E371" s="8">
+      <c r="E371" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="372" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B372" s="7"/>
-      <c r="C372" s="8"/>
+      <c r="B372" s="9"/>
+      <c r="C372" s="10"/>
       <c r="D372" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E372" s="8"/>
+      <c r="E372" s="10"/>
     </row>
     <row r="373" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B373" s="2" t="s">
@@ -6785,56 +6788,56 @@
       </c>
     </row>
     <row r="377" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B377" s="7" t="s">
+      <c r="B377" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="C377" s="8" t="s">
+      <c r="C377" s="10" t="s">
         <v>543</v>
       </c>
       <c r="D377" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E377" s="8">
+      <c r="E377" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="378" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B378" s="7"/>
-      <c r="C378" s="8"/>
+      <c r="B378" s="9"/>
+      <c r="C378" s="10"/>
       <c r="D378" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E378" s="8"/>
+      <c r="E378" s="10"/>
     </row>
     <row r="379" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B379" s="7"/>
-      <c r="C379" s="8"/>
+      <c r="B379" s="9"/>
+      <c r="C379" s="10"/>
       <c r="D379" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E379" s="8"/>
+      <c r="E379" s="10"/>
     </row>
     <row r="380" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B380" s="7" t="s">
+      <c r="B380" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="C380" s="8" t="s">
+      <c r="C380" s="10" t="s">
         <v>545</v>
       </c>
       <c r="D380" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E380" s="8">
+      <c r="E380" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="381" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B381" s="7"/>
-      <c r="C381" s="8"/>
+      <c r="B381" s="9"/>
+      <c r="C381" s="10"/>
       <c r="D381" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E381" s="8"/>
+      <c r="E381" s="10"/>
     </row>
     <row r="382" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B382" s="2" t="s">
@@ -6851,34 +6854,34 @@
       </c>
     </row>
     <row r="383" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B383" s="7" t="s">
+      <c r="B383" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="C383" s="8" t="s">
+      <c r="C383" s="10" t="s">
         <v>549</v>
       </c>
       <c r="D383" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E383" s="8">
+      <c r="E383" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="384" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B384" s="7"/>
-      <c r="C384" s="8"/>
+      <c r="B384" s="9"/>
+      <c r="C384" s="10"/>
       <c r="D384" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E384" s="8"/>
+      <c r="E384" s="10"/>
     </row>
     <row r="385" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B385" s="7"/>
-      <c r="C385" s="8"/>
+      <c r="B385" s="9"/>
+      <c r="C385" s="10"/>
       <c r="D385" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E385" s="8"/>
+      <c r="E385" s="10"/>
     </row>
     <row r="386" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B386" s="2" t="s">
@@ -6923,34 +6926,34 @@
       </c>
     </row>
     <row r="389" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B389" s="7" t="s">
+      <c r="B389" s="9" t="s">
         <v>556</v>
       </c>
-      <c r="C389" s="8" t="s">
+      <c r="C389" s="10" t="s">
         <v>557</v>
       </c>
       <c r="D389" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E389" s="8">
+      <c r="E389" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="390" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B390" s="7"/>
-      <c r="C390" s="8"/>
+      <c r="B390" s="9"/>
+      <c r="C390" s="10"/>
       <c r="D390" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E390" s="8"/>
+      <c r="E390" s="10"/>
     </row>
     <row r="391" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B391" s="7"/>
-      <c r="C391" s="8"/>
+      <c r="B391" s="9"/>
+      <c r="C391" s="10"/>
       <c r="D391" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E391" s="8"/>
+      <c r="E391" s="10"/>
     </row>
     <row r="392" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B392" s="2" t="s">
@@ -6967,48 +6970,48 @@
       </c>
     </row>
     <row r="393" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B393" s="7" t="s">
+      <c r="B393" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="C393" s="8" t="s">
+      <c r="C393" s="10" t="s">
         <v>561</v>
       </c>
       <c r="D393" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E393" s="8">
+      <c r="E393" s="10">
         <v>25</v>
       </c>
     </row>
     <row r="394" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B394" s="7"/>
-      <c r="C394" s="8"/>
+      <c r="B394" s="9"/>
+      <c r="C394" s="10"/>
       <c r="D394" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E394" s="8"/>
+      <c r="E394" s="10"/>
     </row>
     <row r="395" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B395" s="7" t="s">
+      <c r="B395" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="C395" s="8" t="s">
+      <c r="C395" s="10" t="s">
         <v>563</v>
       </c>
       <c r="D395" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E395" s="8">
+      <c r="E395" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="396" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B396" s="7"/>
-      <c r="C396" s="8"/>
+      <c r="B396" s="9"/>
+      <c r="C396" s="10"/>
       <c r="D396" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E396" s="8"/>
+      <c r="E396" s="10"/>
     </row>
     <row r="397" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="398" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
